--- a/medicine/Enfance/Le_Bestiaire_de_l'épouvanteur/Le_Bestiaire_de_l'épouvanteur.xlsx
+++ b/medicine/Enfance/Le_Bestiaire_de_l'épouvanteur/Le_Bestiaire_de_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Bestiaire_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Bestiaire_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bestiaire de l'épouvanteur (titre original : The Spook's Bestiary) est un volume hors-série de la série L'Épouvanteur signée Joseph Delaney, paru en 2010.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Bestiaire_de_l%27%C3%A9pouvanteur</t>
+          <t>Le_Bestiaire_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce livre est une encyclopédie illustrée des créatures que doivent affronter les Épouvanteurs dans leur monde : fantômes, spectres, boggarts, sorcières et autres créatures des ténèbres qui infestent ce monde terrifiant. Il contient également un certain nombre d'histoires, dont une rencontre avec un fantôme étrangleur, et nous découvrirons également la rencontre de l'Épouvanteur avec le gobelin qui cuisine, nettoie et garde la maison de l'Épouvanteur à Chipenden.
 </t>
